--- a/springproject/설정 방법/기본 설정.xlsx
+++ b/springproject/설정 방법/기본 설정.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\eclipse-workspace\SpringTest\springproject\설정 방법\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4488729-570D-40D5-A3B5-FC49F28CAEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217E2679-7C58-40D4-831D-2424159463B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE36154E-980F-40B7-9001-59BB9C46FC11}"/>
+    <workbookView xWindow="5280" yWindow="1344" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{FE36154E-980F-40B7-9001-59BB9C46FC11}"/>
   </bookViews>
   <sheets>
     <sheet name="기본 설정" sheetId="1" r:id="rId1"/>
     <sheet name="빌드 확인" sheetId="2" r:id="rId2"/>
+    <sheet name="DB서버 설정" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>실행법</t>
     <phoneticPr fontId="1"/>
@@ -99,6 +100,49 @@
   </si>
   <si>
     <t>그 다음 적용을 누르면 됨.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>현재 DB서버는 다음과 같습니다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>root.cfudqpsuanql.us-east-2.rds.amazonaws.com</t>
+  </si>
+  <si>
+    <t>포트 번호</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>호스트 명</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB서버에 테스트 용으로 만들어진 아이디와 비밀번호는 다음과 같습니다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>project_emp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -106,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +172,19 @@
       <name val="굴림"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF16191F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,11 +209,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6903EE2E-65C7-4828-B23D-A20C8BD569BE}">
   <dimension ref="B2:B227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
@@ -1171,4 +1234,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CB75BC-7FF7-408D-AA03-7BCB1171A981}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/springproject/설정 방법/기본 설정.xlsx
+++ b/springproject/설정 방법/기본 설정.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\eclipse-workspace\SpringTest\springproject\설정 방법\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217E2679-7C58-40D4-831D-2424159463B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44012943-2DFA-426C-ACEA-EE363E9FA4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1344" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{FE36154E-980F-40B7-9001-59BB9C46FC11}"/>
+    <workbookView xWindow="5412" yWindow="1152" windowWidth="10440" windowHeight="10332" firstSheet="2" activeTab="3" xr2:uid="{FE36154E-980F-40B7-9001-59BB9C46FC11}"/>
   </bookViews>
   <sheets>
     <sheet name="기본 설정" sheetId="1" r:id="rId1"/>
     <sheet name="빌드 확인" sheetId="2" r:id="rId2"/>
     <sheet name="DB서버 설정" sheetId="3" r:id="rId3"/>
+    <sheet name="리눅스 AWS서버 접속" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>실행법</t>
     <phoneticPr fontId="1"/>
@@ -143,6 +144,30 @@
   </si>
   <si>
     <t>project_emp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>현재 리눅스 서버는 다음과 같습니다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사용자명</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>파일에 첨부된 pem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>52.15.192.154</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ec2-user</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -150,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +211,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +251,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,6 +855,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374484</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B7876C-4A12-4587-9778-BD409F432BD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="1143000"/>
+          <a:ext cx="6409524" cy="4733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1240,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CB75BC-7FF7-408D-AA03-7BCB1171A981}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1299,4 +1382,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289C02F3-80CF-4678-BE25-C0CA9CFF06A8}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/springproject/설정 방법/기본 설정.xlsx
+++ b/springproject/설정 방법/기본 설정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\eclipse-workspace\SpringTest\springproject\설정 방법\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44012943-2DFA-426C-ACEA-EE363E9FA4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42615984-992F-4BFF-9904-D61AB408750C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5412" yWindow="1152" windowWidth="10440" windowHeight="10332" firstSheet="2" activeTab="3" xr2:uid="{FE36154E-980F-40B7-9001-59BB9C46FC11}"/>
+    <workbookView xWindow="5268" yWindow="888" windowWidth="10440" windowHeight="10332" firstSheet="2" activeTab="3" xr2:uid="{FE36154E-980F-40B7-9001-59BB9C46FC11}"/>
   </bookViews>
   <sheets>
     <sheet name="기본 설정" sheetId="1" r:id="rId1"/>
@@ -901,6 +901,70 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="사각형: 둥근 위쪽 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6958DD2F-A7E5-43D0-AD4E-6BCB4D7E2DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2217420" y="1988820"/>
+          <a:ext cx="1051560" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ec2-user</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1388,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289C02F3-80CF-4678-BE25-C0CA9CFF06A8}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
